--- a/chapters/ch09-Agriculture/datasets/FeedToFoodEfficiency.xlsx
+++ b/chapters/ch09-Agriculture/datasets/FeedToFoodEfficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch09-Agriculture/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7816DE4F-1640-A347-B403-E6B49D999819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE42DF71-1319-2143-ADEA-C1E5B9A661B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="820" windowWidth="23040" windowHeight="17440" xr2:uid="{451EBCB3-A6E7-9F43-AE1A-34B3564D26B3}"/>
   </bookViews>
@@ -159,13 +159,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -502,7 +502,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,29 +517,29 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <f>12/134 * 100</f>
-        <v>8.9552238805970141</v>
+        <f>21/719 * 100</f>
+        <v>2.9207232267037551</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f>17/137 * 100</f>
-        <v>12.408759124087592</v>
+        <f>12/134 * 100</f>
+        <v>8.9552238805970141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <f>4/22 * 100</f>
-        <v>18.181818181818183</v>
+        <f>17/137 * 100</f>
+        <v>12.408759124087592</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -553,11 +553,11 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <f>21/719 * 100</f>
-        <v>2.9207232267037551</v>
+        <f>4/22 * 100</f>
+        <v>18.181818181818183</v>
       </c>
     </row>
   </sheetData>
